--- a/invoice_gen/TEMPLATE/JLFHM.xlsx
+++ b/invoice_gen/TEMPLATE/JLFHM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\inv_pkl_contract_creation\invoice_gen\TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457DE0CE-3270-42A2-AD7F-34D05FDEAA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A14C78-E222-4548-B7FC-AACB9DEF4CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$G$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Packing list'!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Packing list'!$A$1:$I$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1145,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -1399,140 +1399,160 @@
       <c r="B19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" ht="42" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" ht="42" customHeight="1">
+      <c r="A26" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" ht="74.099999999999994" customHeight="1">
-      <c r="A22" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="44.1" customHeight="1">
-      <c r="A23" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A24" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A25" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-    </row>
-    <row r="26" spans="1:9" ht="42" customHeight="1">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="74.099999999999994" customHeight="1">
+      <c r="A27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="44.1" customHeight="1">
+      <c r="A28" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A29" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A30" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+    </row>
+    <row r="31" spans="1:9" ht="42" customHeight="1">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="24" customHeight="1">
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" ht="69.75" customHeight="1">
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" ht="42" customHeight="1">
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" ht="53.1" customHeight="1">
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" ht="27.75" customHeight="1"/>
-    <row r="32" spans="1:9" ht="27.75" customHeight="1"/>
-    <row r="33" ht="27.75" customHeight="1"/>
-    <row r="34" ht="24.75" customHeight="1"/>
-    <row r="35" ht="21" customHeight="1"/>
-    <row r="36" ht="21" customHeight="1"/>
-    <row r="37" ht="21" customHeight="1"/>
-    <row r="38" ht="21" customHeight="1"/>
-    <row r="39" ht="21" customHeight="1"/>
-    <row r="40" ht="21" customHeight="1"/>
-    <row r="41" ht="21" customHeight="1"/>
-    <row r="42" ht="21" customHeight="1"/>
-    <row r="43" ht="25.5" customHeight="1"/>
-    <row r="44" ht="21" customHeight="1"/>
-    <row r="45" ht="21" customHeight="1"/>
-    <row r="46" ht="21" customHeight="1"/>
-    <row r="47" ht="21" customHeight="1"/>
-    <row r="48" ht="21" customHeight="1"/>
-    <row r="49" ht="17.25" customHeight="1"/>
-    <row r="61" ht="15" customHeight="1"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="24" customHeight="1">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" spans="6:9" ht="69.75" customHeight="1">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="6:9" ht="42" customHeight="1">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="6:9" ht="53.1" customHeight="1">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="6:9" ht="27.75" customHeight="1"/>
+    <row r="37" spans="6:9" ht="27.75" customHeight="1"/>
+    <row r="38" spans="6:9" ht="27.75" customHeight="1"/>
+    <row r="39" spans="6:9" ht="24.75" customHeight="1"/>
+    <row r="40" spans="6:9" ht="21" customHeight="1"/>
+    <row r="41" spans="6:9" ht="21" customHeight="1"/>
+    <row r="42" spans="6:9" ht="21" customHeight="1"/>
+    <row r="43" spans="6:9" ht="21" customHeight="1"/>
+    <row r="44" spans="6:9" ht="21" customHeight="1"/>
+    <row r="45" spans="6:9" ht="21" customHeight="1"/>
+    <row r="46" spans="6:9" ht="21" customHeight="1"/>
+    <row r="47" spans="6:9" ht="21" customHeight="1"/>
+    <row r="48" spans="6:9" ht="25.5" customHeight="1"/>
+    <row r="49" ht="21" customHeight="1"/>
+    <row r="50" ht="21" customHeight="1"/>
+    <row r="51" ht="21" customHeight="1"/>
+    <row r="52" ht="21" customHeight="1"/>
+    <row r="53" ht="21" customHeight="1"/>
+    <row r="54" ht="17.25" customHeight="1"/>
+    <row r="66" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A30:I30"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/invoice_gen/TEMPLATE/JLFHM.xlsx
+++ b/invoice_gen/TEMPLATE/JLFHM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\inv_pkl_contract_creation\invoice_gen\TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\tools\inv_pkl_contract_creation - Copy\invoice_gen\TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A14C78-E222-4548-B7FC-AACB9DEF4CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8C225C-7CC4-46EA-AD7A-B37BC65F8055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="11" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t xml:space="preserve">SHIP: </t>
   </si>
   <si>
-    <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA  VIA HO CHIMINH, VIETNAM  BY SEA TO MALAYSIA.</t>
-  </si>
-  <si>
     <t>Country of Original Cambodia</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>JFTIME</t>
+  </si>
+  <si>
+    <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA  VIA HO CHI MINH, VIETNAM  BY SEA TO MALAYSIA.</t>
   </si>
 </sst>
 </file>
@@ -478,6 +478,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,21 +504,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -805,70 +805,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:7" ht="83.25" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="A7" s="4"/>
@@ -880,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
@@ -895,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1">
@@ -908,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1">
@@ -998,7 +998,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -1016,11 +1016,11 @@
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" ht="42" customHeight="1">
-      <c r="A21" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="22"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1028,49 +1028,49 @@
     </row>
     <row r="22" spans="1:7" ht="61.5" customHeight="1">
       <c r="A22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="41"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1">
-      <c r="A23" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
+      <c r="A23" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A25" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A25" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="1:7" ht="45" customHeight="1">
       <c r="E26" s="32"/>
@@ -1082,7 +1082,7 @@
     <row r="27" spans="1:7" ht="24" customHeight="1">
       <c r="E27" s="4"/>
       <c r="F27" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="69.75" customHeight="1">
@@ -1096,7 +1096,7 @@
     <row r="30" spans="1:7" ht="53.1" customHeight="1">
       <c r="E30" s="4"/>
       <c r="F30" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" s="5"/>
     </row>
@@ -1122,17 +1122,17 @@
     <row r="61" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="J21:J33">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -1169,64 +1169,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
@@ -1234,17 +1234,17 @@
       <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9" ht="54" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="A6" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="4"/>
@@ -1258,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
@@ -1274,13 +1274,13 @@
         <v>8</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1288,13 +1288,13 @@
         <v>10</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1377,7 +1377,7 @@
     <row r="17" spans="1:9" ht="21" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1391,7 +1391,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75" customHeight="1">
@@ -1430,11 +1430,11 @@
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" ht="42" customHeight="1">
-      <c r="A26" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+      <c r="A26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
       <c r="F26" s="3"/>
@@ -1444,12 +1444,12 @@
     </row>
     <row r="27" spans="1:9" ht="74.099999999999994" customHeight="1">
       <c r="A27" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="25"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
@@ -1458,11 +1458,11 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="44.1" customHeight="1">
-      <c r="A28" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
+      <c r="A28" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="27"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -1471,30 +1471,30 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A30" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-    </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A30" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
     </row>
     <row r="31" spans="1:9" ht="42" customHeight="1">
       <c r="F31" s="3"/>
@@ -1547,17 +1547,17 @@
     <row r="66" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.31458333333333299" bottom="0" header="0" footer="0"/>
